--- a/data/trans_orig/P13A_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Estudios-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>42998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38707</v>
+        <v>38884</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44955</v>
+        <v>45259</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9349000976690537</v>
+        <v>0.9349000976690536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8416006019967882</v>
+        <v>0.8454535075012091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9774520529233774</v>
+        <v>0.9840577365508697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -775,19 +775,19 @@
         <v>53192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48209</v>
+        <v>49427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55134</v>
+        <v>55092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9467118753788247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8580237754683718</v>
+        <v>0.8797009851459762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9812846946084175</v>
+        <v>0.9805232620951614</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>2994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1037</v>
+        <v>733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7285</v>
+        <v>7108</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06509990233094638</v>
+        <v>0.0650999023309464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02254794707662249</v>
+        <v>0.01594226344913029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1583993980032117</v>
+        <v>0.1545464924987913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -838,19 +838,19 @@
         <v>2994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1052</v>
+        <v>1094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7977</v>
+        <v>6759</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05328812462117526</v>
+        <v>0.05328812462117525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01871530539158251</v>
+        <v>0.01947673790483871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1419762245316283</v>
+        <v>0.1202990148540242</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>87561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80905</v>
+        <v>81429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89760</v>
+        <v>89792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9699115880464733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8961862207991326</v>
+        <v>0.9019937199649822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9942699286768446</v>
+        <v>0.9946268403909635</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -976,19 +976,19 @@
         <v>114888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108843</v>
+        <v>109521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117118</v>
+        <v>117122</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9769031623449743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9255053755515992</v>
+        <v>0.9312654623335639</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9958704542651614</v>
+        <v>0.9958987721577989</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>2716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9372</v>
+        <v>8848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03008841195352667</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005730071323155458</v>
+        <v>0.005373159609036515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1038137792008674</v>
+        <v>0.09800628003501813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1039,19 +1039,19 @@
         <v>2716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8761</v>
+        <v>8083</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02309683765502577</v>
+        <v>0.02309683765502576</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004129545734838676</v>
+        <v>0.004101227842201317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07449462444840092</v>
+        <v>0.06873453766643713</v>
       </c>
     </row>
     <row r="9">
@@ -1156,19 +1156,19 @@
         <v>23854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15838</v>
+        <v>17456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26966</v>
+        <v>26721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8696539225162127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5774012782064344</v>
+        <v>0.636395635977078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9831063076738578</v>
+        <v>0.974204431332964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1177,19 +1177,19 @@
         <v>26240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16960</v>
+        <v>17721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29084</v>
+        <v>29067</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8800859348141741</v>
+        <v>0.880085934814174</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5688434514991015</v>
+        <v>0.594366132858234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9754840668492553</v>
+        <v>0.974901860105499</v>
       </c>
     </row>
     <row r="11">
@@ -1219,19 +1219,19 @@
         <v>3575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>463</v>
+        <v>708</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11591</v>
+        <v>9973</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1303460774837874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01689369232614234</v>
+        <v>0.0257955686670361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4225987217935671</v>
+        <v>0.3636043640229217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>3575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12855</v>
+        <v>12094</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.119914065185826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02451593315074471</v>
+        <v>0.02509813989450096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4311565485008998</v>
+        <v>0.4056338671417678</v>
       </c>
     </row>
     <row r="12">
@@ -1357,19 +1357,19 @@
         <v>154412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145334</v>
+        <v>144910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159493</v>
+        <v>159615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9432758051825159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8878161737841309</v>
+        <v>0.8852264298735595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9743104352257382</v>
+        <v>0.9750580892062353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -1378,19 +1378,19 @@
         <v>194320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184599</v>
+        <v>185710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198751</v>
+        <v>198806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9543941320741558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9066501712097526</v>
+        <v>0.9121041843410628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9761550192951383</v>
+        <v>0.9764258874925319</v>
       </c>
     </row>
     <row r="14">
@@ -1420,19 +1420,19 @@
         <v>9286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4205</v>
+        <v>4083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18364</v>
+        <v>18788</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05672419481748412</v>
+        <v>0.05672419481748413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02568956477426183</v>
+        <v>0.02494191079376473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1121838262158689</v>
+        <v>0.1147735701264403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1441,19 +1441,19 @@
         <v>9286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4855</v>
+        <v>4800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19007</v>
+        <v>17896</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04560586792584424</v>
+        <v>0.04560586792584426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0238449807048619</v>
+        <v>0.02357411250746804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0933498287902472</v>
+        <v>0.08789581565893706</v>
       </c>
     </row>
     <row r="15">
